--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H2">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I2">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J2">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>12.495484445532</v>
+        <v>0.01235431233711111</v>
       </c>
       <c r="R2">
-        <v>112.459360009788</v>
+        <v>0.111188811034</v>
       </c>
       <c r="S2">
-        <v>0.1450265517488171</v>
+        <v>0.001007804800726746</v>
       </c>
       <c r="T2">
-        <v>0.1450265517488171</v>
+        <v>0.001007804800726746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H3">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I3">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J3">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>10.30127857983</v>
+        <v>0.3353758003399999</v>
       </c>
       <c r="R3">
-        <v>92.71150721846999</v>
+        <v>3.018382203059999</v>
       </c>
       <c r="S3">
-        <v>0.1195599032233512</v>
+        <v>0.02735832901155725</v>
       </c>
       <c r="T3">
-        <v>0.1195599032233512</v>
+        <v>0.02735832901155725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.390969</v>
+        <v>0.01272866666666667</v>
       </c>
       <c r="H4">
-        <v>1.172907</v>
+        <v>0.038186</v>
       </c>
       <c r="I4">
-        <v>0.3711714568353178</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="J4">
-        <v>0.3711714568353179</v>
+        <v>0.04860514461513396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>9.183361369679998</v>
+        <v>0.2481026689615555</v>
       </c>
       <c r="R4">
-        <v>82.65025232711999</v>
+        <v>2.232924020654</v>
       </c>
       <c r="S4">
-        <v>0.1065850018631495</v>
+        <v>0.02023901080284996</v>
       </c>
       <c r="T4">
-        <v>0.1065850018631495</v>
+        <v>0.02023901080284996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.747451</v>
       </c>
       <c r="I5">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J5">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>7.962918069631556</v>
+        <v>0.2418227389798889</v>
       </c>
       <c r="R5">
-        <v>71.66626262668399</v>
+        <v>2.176404650819</v>
       </c>
       <c r="S5">
-        <v>0.09242015021754077</v>
+        <v>0.01972672461394247</v>
       </c>
       <c r="T5">
-        <v>0.09242015021754076</v>
+        <v>0.01972672461394247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.747451</v>
       </c>
       <c r="I6">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J6">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>6.564630423189999</v>
@@ -818,10 +818,10 @@
         <v>59.08167380870999</v>
       </c>
       <c r="S6">
-        <v>0.07619118073657766</v>
+        <v>0.5355106682558394</v>
       </c>
       <c r="T6">
-        <v>0.07619118073657766</v>
+        <v>0.5355106682558394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +850,10 @@
         <v>0.747451</v>
       </c>
       <c r="I7">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="J7">
-        <v>0.236534078646487</v>
+        <v>0.9513948553848661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>5.852222417573333</v>
+        <v>4.856350181165444</v>
       </c>
       <c r="R7">
-        <v>52.67000175815999</v>
+        <v>43.70715163048899</v>
       </c>
       <c r="S7">
-        <v>0.0679227476923686</v>
+        <v>0.3961574625150843</v>
       </c>
       <c r="T7">
-        <v>0.06792274769236858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.239656</v>
-      </c>
-      <c r="I8">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J8">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>31.96029466666667</v>
-      </c>
-      <c r="N8">
-        <v>95.88088399999999</v>
-      </c>
-      <c r="O8">
-        <v>0.3907265741426954</v>
-      </c>
-      <c r="P8">
-        <v>0.3907265741426953</v>
-      </c>
-      <c r="Q8">
-        <v>13.20659034843378</v>
-      </c>
-      <c r="R8">
-        <v>118.859313135904</v>
-      </c>
-      <c r="S8">
-        <v>0.1532798721763376</v>
-      </c>
-      <c r="T8">
-        <v>0.1532798721763376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H9">
-        <v>1.239656</v>
-      </c>
-      <c r="I9">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J9">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.34807</v>
-      </c>
-      <c r="N9">
-        <v>79.04420999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.3221150253382706</v>
-      </c>
-      <c r="P9">
-        <v>0.3221150253382706</v>
-      </c>
-      <c r="Q9">
-        <v>10.88751435464</v>
-      </c>
-      <c r="R9">
-        <v>97.98762919175998</v>
-      </c>
-      <c r="S9">
-        <v>0.1263639413783417</v>
-      </c>
-      <c r="T9">
-        <v>0.1263639413783418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4132186666666666</v>
-      </c>
-      <c r="H10">
-        <v>1.239656</v>
-      </c>
-      <c r="I10">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="J10">
-        <v>0.3922944645181952</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>23.48872</v>
-      </c>
-      <c r="N10">
-        <v>70.46615999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.287158400519034</v>
-      </c>
-      <c r="P10">
-        <v>0.2871584005190339</v>
-      </c>
-      <c r="Q10">
-        <v>9.705977560106664</v>
-      </c>
-      <c r="R10">
-        <v>87.35379804095997</v>
-      </c>
-      <c r="S10">
-        <v>0.1126506509635158</v>
-      </c>
-      <c r="T10">
-        <v>0.1126506509635158</v>
+        <v>0.3961574625150842</v>
       </c>
     </row>
   </sheetData>
